--- a/server/productinfo.xlsx
+++ b/server/productinfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\tyson-kpi-master\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\node\tyson-kpi\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5619B62E-45F8-4576-9E61-55D4184E0985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5D441-66C0-46A9-990F-D8BFF4AF9057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B5464D1-51EE-497E-AF38-E9E9D7407349}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="52">
   <si>
     <t>Sap System ID</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>PS3</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -569,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072FAC21-49BB-4EE4-B24D-EEA7BAB2828A}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,7 +595,7 @@
     <col min="7" max="7" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,8 +617,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -631,8 +643,11 @@
       <c r="G2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -654,8 +669,11 @@
       <c r="G3">
         <v>2017</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -677,8 +695,11 @@
       <c r="G4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -700,8 +721,11 @@
       <c r="G5">
         <v>2015</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="G7">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -746,8 +773,11 @@
       <c r="G8">
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -769,8 +799,11 @@
       <c r="G9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -792,8 +825,11 @@
       <c r="G10">
         <v>2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -815,8 +851,11 @@
       <c r="G12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -838,8 +877,11 @@
       <c r="G13">
         <v>2014</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -861,8 +903,11 @@
       <c r="G14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -884,8 +929,11 @@
       <c r="G15">
         <v>2018</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -907,8 +955,11 @@
       <c r="G17">
         <v>2017</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -930,8 +981,11 @@
       <c r="G18">
         <v>2023</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -953,8 +1007,11 @@
       <c r="G19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -976,8 +1033,11 @@
       <c r="G20">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -999,8 +1059,11 @@
       <c r="G22">
         <v>2023</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1022,8 +1085,11 @@
       <c r="G23">
         <v>2019</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1045,8 +1111,11 @@
       <c r="G24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1068,8 +1137,11 @@
       <c r="G25">
         <v>2018</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1091,8 +1163,11 @@
       <c r="G27">
         <v>2022</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1114,8 +1189,11 @@
       <c r="G28">
         <v>2017</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1137,8 +1215,11 @@
       <c r="G29">
         <v>2019</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1160,8 +1241,11 @@
       <c r="G30">
         <v>2015</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1183,8 +1267,11 @@
       <c r="G32">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -1206,8 +1293,11 @@
       <c r="G33">
         <v>2017</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1229,8 +1319,11 @@
       <c r="G34">
         <v>2019</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1252,8 +1345,11 @@
       <c r="G35">
         <v>2014</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1275,8 +1371,11 @@
       <c r="G37">
         <v>2019</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1298,8 +1397,11 @@
       <c r="G38">
         <v>2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1321,8 +1423,11 @@
       <c r="G39">
         <v>2022</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1344,8 +1449,11 @@
       <c r="G40">
         <v>2018</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1367,8 +1475,11 @@
       <c r="G42">
         <v>2017</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1390,8 +1501,11 @@
       <c r="G43">
         <v>2023</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1413,8 +1527,11 @@
       <c r="G44">
         <v>2020</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1436,8 +1553,11 @@
       <c r="G45">
         <v>2017</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1459,8 +1579,11 @@
       <c r="G47">
         <v>2023</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1482,8 +1605,11 @@
       <c r="G48">
         <v>2019</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1505,8 +1631,11 @@
       <c r="G49">
         <v>2022</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1528,8 +1657,11 @@
       <c r="G50">
         <v>2018</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -1551,8 +1683,11 @@
       <c r="G52">
         <v>2019</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -1574,8 +1709,11 @@
       <c r="G53">
         <v>2014</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1597,8 +1735,11 @@
       <c r="G54">
         <v>2022</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1620,8 +1761,11 @@
       <c r="G55">
         <v>2018</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -1643,8 +1787,11 @@
       <c r="G57">
         <v>2017</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -1666,8 +1813,11 @@
       <c r="G58">
         <v>2023</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -1689,8 +1839,11 @@
       <c r="G59">
         <v>2020</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1711,6 +1864,9 @@
       </c>
       <c r="G60">
         <v>2017</v>
+      </c>
+      <c r="H60" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
